--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.18461566666667</v>
+        <v>21.33618133333333</v>
       </c>
       <c r="H2">
-        <v>96.55384699999999</v>
+        <v>64.008544</v>
       </c>
       <c r="I2">
-        <v>0.3067031097820925</v>
+        <v>0.3322933619288286</v>
       </c>
       <c r="J2">
-        <v>0.351256693442565</v>
+        <v>0.350300042012334</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N2">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O2">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P2">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q2">
-        <v>2563.961938325803</v>
+        <v>1616.114865646716</v>
       </c>
       <c r="R2">
-        <v>23075.65744493222</v>
+        <v>14545.03379082045</v>
       </c>
       <c r="S2">
-        <v>0.03215268087761257</v>
+        <v>0.02661999614123656</v>
       </c>
       <c r="T2">
-        <v>0.03878044546228364</v>
+        <v>0.03027201496185252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.18461566666667</v>
+        <v>21.33618133333333</v>
       </c>
       <c r="H3">
-        <v>96.55384699999999</v>
+        <v>64.008544</v>
       </c>
       <c r="I3">
-        <v>0.3067031097820925</v>
+        <v>0.3322933619288286</v>
       </c>
       <c r="J3">
-        <v>0.351256693442565</v>
+        <v>0.350300042012334</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N3">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O3">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P3">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q3">
-        <v>10173.91898187753</v>
+        <v>6744.606880386062</v>
       </c>
       <c r="R3">
-        <v>91565.27083689776</v>
+        <v>60701.46192347456</v>
       </c>
       <c r="S3">
-        <v>0.1275833176028318</v>
+        <v>0.1110944605154584</v>
       </c>
       <c r="T3">
-        <v>0.1538825925286643</v>
+        <v>0.1263355994891842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.18461566666667</v>
+        <v>21.33618133333333</v>
       </c>
       <c r="H4">
-        <v>96.55384699999999</v>
+        <v>64.008544</v>
       </c>
       <c r="I4">
-        <v>0.3067031097820925</v>
+        <v>0.3322933619288286</v>
       </c>
       <c r="J4">
-        <v>0.351256693442565</v>
+        <v>0.350300042012334</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N4">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O4">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P4">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q4">
-        <v>3760.524165078595</v>
+        <v>3810.152683486815</v>
       </c>
       <c r="R4">
-        <v>33844.71748570735</v>
+        <v>34291.37415138134</v>
       </c>
       <c r="S4">
-        <v>0.04715785035844722</v>
+        <v>0.06275930745266282</v>
       </c>
       <c r="T4">
-        <v>0.05687869235245212</v>
+        <v>0.07136930764837665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.18461566666667</v>
+        <v>21.33618133333333</v>
       </c>
       <c r="H5">
-        <v>96.55384699999999</v>
+        <v>64.008544</v>
       </c>
       <c r="I5">
-        <v>0.3067031097820925</v>
+        <v>0.3322933619288286</v>
       </c>
       <c r="J5">
-        <v>0.351256693442565</v>
+        <v>0.350300042012334</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N5">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O5">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P5">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q5">
-        <v>3702.771801064786</v>
+        <v>4417.339961501765</v>
       </c>
       <c r="R5">
-        <v>22216.63080638872</v>
+        <v>26504.03976901059</v>
       </c>
       <c r="S5">
-        <v>0.04643362224011713</v>
+        <v>0.07276065286526</v>
       </c>
       <c r="T5">
-        <v>0.03733678407208557</v>
+        <v>0.05516183048975683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.18461566666667</v>
+        <v>21.33618133333333</v>
       </c>
       <c r="H6">
-        <v>96.55384699999999</v>
+        <v>64.008544</v>
       </c>
       <c r="I6">
-        <v>0.3067031097820925</v>
+        <v>0.3322933619288286</v>
       </c>
       <c r="J6">
-        <v>0.351256693442565</v>
+        <v>0.350300042012334</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N6">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O6">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P6">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q6">
-        <v>4256.351331618669</v>
+        <v>3585.501605015538</v>
       </c>
       <c r="R6">
-        <v>38307.16198456802</v>
+        <v>32269.51444513984</v>
       </c>
       <c r="S6">
-        <v>0.05337563870308377</v>
+        <v>0.05905894495421074</v>
       </c>
       <c r="T6">
-        <v>0.06437817902707944</v>
+        <v>0.06716128942316378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>97.12911800000001</v>
       </c>
       <c r="I7">
-        <v>0.308530457010085</v>
+        <v>0.5042352027473379</v>
       </c>
       <c r="J7">
-        <v>0.3533494923891819</v>
+        <v>0.5315592574019642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N7">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O7">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P7">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q7">
-        <v>2579.238107987097</v>
+        <v>2452.357164802156</v>
       </c>
       <c r="R7">
-        <v>23213.14297188387</v>
+        <v>22071.21448321941</v>
       </c>
       <c r="S7">
-        <v>0.03234424760908776</v>
+        <v>0.04039424403032368</v>
       </c>
       <c r="T7">
-        <v>0.03901150063341042</v>
+        <v>0.04593596306967299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>97.12911800000001</v>
       </c>
       <c r="I8">
-        <v>0.308530457010085</v>
+        <v>0.5042352027473379</v>
       </c>
       <c r="J8">
-        <v>0.3533494923891819</v>
+        <v>0.5315592574019642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N8">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O8">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P8">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q8">
         <v>10234.53552620459</v>
       </c>
       <c r="R8">
-        <v>92110.81973584132</v>
+        <v>92110.81973584133</v>
       </c>
       <c r="S8">
-        <v>0.1283434632105019</v>
+        <v>0.1685791660024684</v>
       </c>
       <c r="T8">
-        <v>0.1547994300823929</v>
+        <v>0.1917066782582293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>97.12911800000001</v>
       </c>
       <c r="I9">
-        <v>0.308530457010085</v>
+        <v>0.5042352027473379</v>
       </c>
       <c r="J9">
-        <v>0.3533494923891819</v>
+        <v>0.5315592574019642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N9">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O9">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P9">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q9">
-        <v>3782.929491890368</v>
+        <v>5781.677670912301</v>
       </c>
       <c r="R9">
-        <v>34046.36542701331</v>
+        <v>52035.09903821071</v>
       </c>
       <c r="S9">
-        <v>0.04743881838381813</v>
+        <v>0.09523347663036932</v>
       </c>
       <c r="T9">
-        <v>0.05721757747453627</v>
+        <v>0.1082986343847702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>97.12911800000001</v>
       </c>
       <c r="I10">
-        <v>0.308530457010085</v>
+        <v>0.5042352027473379</v>
       </c>
       <c r="J10">
-        <v>0.3533494923891819</v>
+        <v>0.5315592574019642</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N10">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O10">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P10">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q10">
-        <v>3724.833037389947</v>
+        <v>6703.047867591245</v>
       </c>
       <c r="R10">
-        <v>22348.99822433968</v>
+        <v>40218.28720554747</v>
       </c>
       <c r="S10">
-        <v>0.04671027529050977</v>
+        <v>0.1104099171183597</v>
       </c>
       <c r="T10">
-        <v>0.03755923786110895</v>
+        <v>0.08370476201951399</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>97.12911800000001</v>
       </c>
       <c r="I11">
-        <v>0.308530457010085</v>
+        <v>0.5042352027473379</v>
       </c>
       <c r="J11">
-        <v>0.3533494923891819</v>
+        <v>0.5315592574019642</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N11">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O11">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P11">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q11">
-        <v>4281.710813016563</v>
+        <v>5440.78316299061</v>
       </c>
       <c r="R11">
-        <v>38535.39731714907</v>
+        <v>48967.04846691548</v>
       </c>
       <c r="S11">
-        <v>0.05369365251616738</v>
+        <v>0.0896183989658168</v>
       </c>
       <c r="T11">
-        <v>0.06476174633773345</v>
+        <v>0.1019132196697776</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2633643333333333</v>
+        <v>0.161971</v>
       </c>
       <c r="H12">
-        <v>0.7900929999999999</v>
+        <v>0.485913</v>
       </c>
       <c r="I12">
-        <v>0.002509728898912364</v>
+        <v>0.002522564243531659</v>
       </c>
       <c r="J12">
-        <v>0.002874307583954853</v>
+        <v>0.002659259743735762</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N12">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O12">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P12">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q12">
-        <v>20.98071120602422</v>
+        <v>12.26853750510233</v>
       </c>
       <c r="R12">
-        <v>188.826400854218</v>
+        <v>110.416837545921</v>
       </c>
       <c r="S12">
-        <v>0.0002631030133127222</v>
+        <v>0.0002020824311357041</v>
       </c>
       <c r="T12">
-        <v>0.0003173375214830339</v>
+        <v>0.0002298062834573872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2633643333333333</v>
+        <v>0.161971</v>
       </c>
       <c r="H13">
-        <v>0.7900929999999999</v>
+        <v>0.485913</v>
       </c>
       <c r="I13">
-        <v>0.002509728898912364</v>
+        <v>0.002522564243531659</v>
       </c>
       <c r="J13">
-        <v>0.002874307583954853</v>
+        <v>0.002659259743735762</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N13">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O13">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P13">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q13">
-        <v>83.25242773753554</v>
+        <v>51.20085473384667</v>
       </c>
       <c r="R13">
-        <v>749.2718496378199</v>
+        <v>460.8076926046201</v>
       </c>
       <c r="S13">
-        <v>0.001044004866577447</v>
+        <v>0.0008433599519534135</v>
       </c>
       <c r="T13">
-        <v>0.001259209891230434</v>
+        <v>0.0009590611864970399</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2633643333333333</v>
+        <v>0.161971</v>
       </c>
       <c r="H14">
-        <v>0.7900929999999999</v>
+        <v>0.485913</v>
       </c>
       <c r="I14">
-        <v>0.002509728898912364</v>
+        <v>0.002522564243531659</v>
       </c>
       <c r="J14">
-        <v>0.002874307583954853</v>
+        <v>0.002659259743735762</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N14">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O14">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P14">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q14">
-        <v>30.77209154762567</v>
+        <v>28.924306119057</v>
       </c>
       <c r="R14">
-        <v>276.948823928631</v>
+        <v>260.318755071513</v>
       </c>
       <c r="S14">
-        <v>0.0003858892071204231</v>
+        <v>0.000476429574186936</v>
       </c>
       <c r="T14">
-        <v>0.0004654341393235834</v>
+        <v>0.000541791333159299</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2633643333333333</v>
+        <v>0.161971</v>
       </c>
       <c r="H15">
-        <v>0.7900929999999999</v>
+        <v>0.485913</v>
       </c>
       <c r="I15">
-        <v>0.002509728898912364</v>
+        <v>0.002522564243531659</v>
       </c>
       <c r="J15">
-        <v>0.002874307583954853</v>
+        <v>0.002659259743735762</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N15">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O15">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P15">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q15">
-        <v>30.29950821761333</v>
+        <v>33.5336937630265</v>
       </c>
       <c r="R15">
-        <v>181.79704930568</v>
+        <v>201.202162578159</v>
       </c>
       <c r="S15">
-        <v>0.0003799629019086195</v>
+        <v>0.0005523535594828885</v>
       </c>
       <c r="T15">
-        <v>0.0003055241469339518</v>
+        <v>0.0004187542609744289</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2633643333333333</v>
+        <v>0.161971</v>
       </c>
       <c r="H16">
-        <v>0.7900929999999999</v>
+        <v>0.485913</v>
       </c>
       <c r="I16">
-        <v>0.002509728898912364</v>
+        <v>0.002522564243531659</v>
       </c>
       <c r="J16">
-        <v>0.002874307583954853</v>
+        <v>0.002659259743735762</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N16">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O16">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P16">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q16">
-        <v>34.82940863715755</v>
+        <v>27.21889504935334</v>
       </c>
       <c r="R16">
-        <v>313.464677734418</v>
+        <v>244.97005544418</v>
       </c>
       <c r="S16">
-        <v>0.0004367689099931519</v>
+        <v>0.0004483387267727166</v>
       </c>
       <c r="T16">
-        <v>0.0005268018849838502</v>
+        <v>0.0005098466796476075</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.930931</v>
+        <v>9.901699499999999</v>
       </c>
       <c r="H17">
-        <v>79.861862</v>
+        <v>19.803399</v>
       </c>
       <c r="I17">
-        <v>0.3805215771732274</v>
+        <v>0.1542107729710584</v>
       </c>
       <c r="J17">
-        <v>0.2905323241888688</v>
+        <v>0.1083782112226613</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N17">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O17">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P17">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q17">
-        <v>3181.066019438269</v>
+        <v>750.0069251903304</v>
       </c>
       <c r="R17">
-        <v>19086.39611662961</v>
+        <v>4500.041551141982</v>
       </c>
       <c r="S17">
-        <v>0.03989131002482896</v>
+        <v>0.01235381338224241</v>
       </c>
       <c r="T17">
-        <v>0.03207618008019321</v>
+        <v>0.00936576202738708</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.930931</v>
+        <v>9.901699499999999</v>
       </c>
       <c r="H18">
-        <v>79.861862</v>
+        <v>19.803399</v>
       </c>
       <c r="I18">
-        <v>0.3805215771732274</v>
+        <v>0.1542107729710584</v>
       </c>
       <c r="J18">
-        <v>0.2905323241888688</v>
+        <v>0.1083782112226613</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N18">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O18">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P18">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q18">
-        <v>12622.61637897065</v>
+        <v>3130.03857306371</v>
       </c>
       <c r="R18">
-        <v>75735.69827382387</v>
+        <v>18780.23143838226</v>
       </c>
       <c r="S18">
-        <v>0.1582905542422281</v>
+        <v>0.05155674049414487</v>
       </c>
       <c r="T18">
-        <v>0.1272797589175957</v>
+        <v>0.03908656763991556</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.930931</v>
+        <v>9.901699499999999</v>
       </c>
       <c r="H19">
-        <v>79.861862</v>
+        <v>19.803399</v>
       </c>
       <c r="I19">
-        <v>0.3805215771732274</v>
+        <v>0.1542107729710584</v>
       </c>
       <c r="J19">
-        <v>0.2905323241888688</v>
+        <v>0.1083782112226613</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N19">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O19">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P19">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q19">
-        <v>4665.62137994106</v>
+        <v>1768.216455025366</v>
       </c>
       <c r="R19">
-        <v>27993.72827964636</v>
+        <v>10609.2987301522</v>
       </c>
       <c r="S19">
-        <v>0.05850798059153919</v>
+        <v>0.02912535254157841</v>
       </c>
       <c r="T19">
-        <v>0.04704564779684012</v>
+        <v>0.022080722156632</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.930931</v>
+        <v>9.901699499999999</v>
       </c>
       <c r="H20">
-        <v>79.861862</v>
+        <v>19.803399</v>
       </c>
       <c r="I20">
-        <v>0.3805215771732274</v>
+        <v>0.1542107729710584</v>
       </c>
       <c r="J20">
-        <v>0.2905323241888688</v>
+        <v>0.1083782112226613</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N20">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O20">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P20">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q20">
-        <v>4593.96895797628</v>
+        <v>2050.000054123964</v>
       </c>
       <c r="R20">
-        <v>18375.87583190512</v>
+        <v>8200.000216495857</v>
       </c>
       <c r="S20">
-        <v>0.05760944250362752</v>
+        <v>0.03376677901448369</v>
       </c>
       <c r="T20">
-        <v>0.03088209522183716</v>
+        <v>0.01706634256137774</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.930931</v>
+        <v>9.901699499999999</v>
       </c>
       <c r="H21">
-        <v>79.861862</v>
+        <v>19.803399</v>
       </c>
       <c r="I21">
-        <v>0.3805215771732274</v>
+        <v>0.1542107729710584</v>
       </c>
       <c r="J21">
-        <v>0.2905323241888688</v>
+        <v>0.1083782112226613</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N21">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O21">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P21">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q21">
-        <v>5280.786108956068</v>
+        <v>1663.96033549669</v>
       </c>
       <c r="R21">
-        <v>31684.71665373641</v>
+        <v>9983.76201298014</v>
       </c>
       <c r="S21">
-        <v>0.06622228981100362</v>
+        <v>0.02740808753860903</v>
       </c>
       <c r="T21">
-        <v>0.05324864217240265</v>
+        <v>0.02077881683734897</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1820796666666667</v>
+        <v>0.4326456666666667</v>
       </c>
       <c r="H22">
-        <v>0.546239</v>
+        <v>1.297937</v>
       </c>
       <c r="I22">
-        <v>0.00173512713568275</v>
+        <v>0.006738098109243323</v>
       </c>
       <c r="J22">
-        <v>0.001987182395429291</v>
+        <v>0.007103229619304617</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>79.66420866666668</v>
+        <v>75.74527233333333</v>
       </c>
       <c r="N22">
-        <v>238.992626</v>
+        <v>227.235817</v>
       </c>
       <c r="O22">
-        <v>0.1048332405251988</v>
+        <v>0.08010992451585024</v>
       </c>
       <c r="P22">
-        <v>0.1104048582881303</v>
+        <v>0.08641738889881904</v>
       </c>
       <c r="Q22">
-        <v>14.50523255929045</v>
+        <v>32.77086384550322</v>
       </c>
       <c r="R22">
-        <v>130.547093033614</v>
+        <v>294.937774609529</v>
       </c>
       <c r="S22">
-        <v>0.000181899000356829</v>
+        <v>0.0005397885309118758</v>
       </c>
       <c r="T22">
-        <v>0.0002193945907600383</v>
+        <v>0.0006138425564490575</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1820796666666667</v>
+        <v>0.4326456666666667</v>
       </c>
       <c r="H23">
-        <v>0.546239</v>
+        <v>1.297937</v>
       </c>
       <c r="I23">
-        <v>0.00173512713568275</v>
+        <v>0.006738098109243323</v>
       </c>
       <c r="J23">
-        <v>0.001987182395429291</v>
+        <v>0.007103229619304617</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>316.1112466666667</v>
       </c>
       <c r="N23">
-        <v>948.3337399999999</v>
+        <v>948.33374</v>
       </c>
       <c r="O23">
-        <v>0.4159831235277584</v>
+        <v>0.3343264513940333</v>
       </c>
       <c r="P23">
-        <v>0.4380915592540191</v>
+        <v>0.3606496840920618</v>
       </c>
       <c r="Q23">
-        <v>57.55743042265111</v>
+        <v>136.7641610549311</v>
       </c>
       <c r="R23">
-        <v>518.01687380386</v>
+        <v>1230.87744949438</v>
       </c>
       <c r="S23">
-        <v>0.0007217836056190829</v>
+        <v>0.002252724430008166</v>
       </c>
       <c r="T23">
-        <v>0.0008705678341357551</v>
+        <v>0.002561777518235586</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1820796666666667</v>
+        <v>0.4326456666666667</v>
       </c>
       <c r="H24">
-        <v>0.546239</v>
+        <v>1.297937</v>
       </c>
       <c r="I24">
-        <v>0.00173512713568275</v>
+        <v>0.006738098109243323</v>
       </c>
       <c r="J24">
-        <v>0.001987182395429291</v>
+        <v>0.007103229619304617</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.842289</v>
+        <v>178.577067</v>
       </c>
       <c r="N24">
-        <v>350.526867</v>
+        <v>535.7312009999999</v>
       </c>
       <c r="O24">
-        <v>0.1537573270514019</v>
+        <v>0.1888671717315399</v>
       </c>
       <c r="P24">
-        <v>0.1619291344885148</v>
+        <v>0.203737650838945</v>
       </c>
       <c r="Q24">
-        <v>21.27460503369034</v>
+        <v>77.260594203593</v>
       </c>
       <c r="R24">
-        <v>191.471445303213</v>
+        <v>695.345347832337</v>
       </c>
       <c r="S24">
-        <v>0.0002667885104769348</v>
+        <v>0.001272605532742423</v>
       </c>
       <c r="T24">
-        <v>0.0003217827253626787</v>
+        <v>0.001447195316006736</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1820796666666667</v>
+        <v>0.4326456666666667</v>
       </c>
       <c r="H25">
-        <v>0.546239</v>
+        <v>1.297937</v>
       </c>
       <c r="I25">
-        <v>0.00173512713568275</v>
+        <v>0.006738098109243323</v>
       </c>
       <c r="J25">
-        <v>0.001987182395429291</v>
+        <v>0.007103229619304617</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>115.04788</v>
+        <v>207.0351715</v>
       </c>
       <c r="N25">
-        <v>230.09576</v>
+        <v>414.070343</v>
       </c>
       <c r="O25">
-        <v>0.1513959942339921</v>
+        <v>0.2189651109577207</v>
       </c>
       <c r="P25">
-        <v>0.1062948685935592</v>
+        <v>0.1574702365802588</v>
       </c>
       <c r="Q25">
-        <v>20.94787964110667</v>
+        <v>89.57286979706517</v>
       </c>
       <c r="R25">
-        <v>125.68727784664</v>
+        <v>537.437218782391</v>
       </c>
       <c r="S25">
-        <v>0.0002626912978290688</v>
+        <v>0.001475408400134473</v>
       </c>
       <c r="T25">
-        <v>0.0002112272915935908</v>
+        <v>0.0011185472486358</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1820796666666667</v>
+        <v>0.4326456666666667</v>
       </c>
       <c r="H26">
-        <v>0.546239</v>
+        <v>1.297937</v>
       </c>
       <c r="I26">
-        <v>0.00173512713568275</v>
+        <v>0.006738098109243323</v>
       </c>
       <c r="J26">
-        <v>0.001987182395429291</v>
+        <v>0.007103229619304617</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>132.2480086666667</v>
+        <v>168.0479533333333</v>
       </c>
       <c r="N26">
-        <v>396.744026</v>
+        <v>504.14386</v>
       </c>
       <c r="O26">
-        <v>0.1740303146616488</v>
+        <v>0.1777313414008557</v>
       </c>
       <c r="P26">
-        <v>0.1832795793757766</v>
+        <v>0.1917250395899155</v>
       </c>
       <c r="Q26">
-        <v>24.07967333535711</v>
+        <v>72.7052188018689</v>
       </c>
       <c r="R26">
-        <v>216.717060018214</v>
+        <v>654.3469692168201</v>
       </c>
       <c r="S26">
-        <v>0.0003019647214008342</v>
+        <v>0.001197571215446385</v>
       </c>
       <c r="T26">
-        <v>0.0003642099535772287</v>
+        <v>0.001361866979977438</v>
       </c>
     </row>
   </sheetData>
